--- a/pred_ohlcv/54_21/2020-01-25 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BTG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3348.90072092</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3348.90072092</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3348.90072092</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3322.85616044</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3295.03007349</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3405.03007349</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-3404.98007349</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-3227.800682189999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-3226.50378219</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-3252.515382189999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3497.515382189999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-3497.515382189999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3477.955582189999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3762.527982189999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3748.527982189999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3378.39188219</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3382.86578219</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3382.86578219</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3382.86578219</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-4332.231582189999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-5872.375724300002</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-5648.844907590003</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-5801.462307590003</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-5837.682307590003</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-5830.682307590003</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-6135.504607590003</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-6135.504607590003</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-6118.338607590003</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6199.868607590002</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-6199.868607590002</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-6300.868607590002</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-6250.393607590002</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-6536.893607590002</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-5968.329334880003</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-5550.933714050003</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-5238.742914050003</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-5352.407414050002</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-5333.518716900003</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-5346.383216900002</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-5518.846423120002</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-5608.346423120002</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-5559.582546020002</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-5769.582546020002</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-5961.582546020002</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-5951.603246020002</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-5684.988046020002</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5724.988046020002</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-5699.841546020002</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-5907.341546020002</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5766.223746020002</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5846.017146020002</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5845.644374820002</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5851.694374820002</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5851.567074820002</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5895.894074820002</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-6133.141574820002</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-17884.12378045001</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-18001.15698045001</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-18417.37358045001</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-18107.68488045</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-17919.68488045</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-17971.78718045</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-18221.61368045001</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-18162.61368045001</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-18287.89368045001</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-18220.16348045001</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-18310.16348045001</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-20248.26638045001</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-20128.71868045001</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-20128.71868045001</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-20208.71868045001</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-20095.30868045001</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-20622.85138045001</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-21102.15658045001</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-21142.15658045001</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-21005.85848045001</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-21013.07488045001</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-21013.07488045001</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-20893.31378045001</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-20796.12898045001</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-20756.12898045001</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-20591.67265920001</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-19488.78075577</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-19513.83275577</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-19513.83275577</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-19423.13695577</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-19319.50525577</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-17373.36515576999</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-16852.86515576999</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-16599.72915576999</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-16615.48985751999</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-13544.69991687</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-13569.13311687</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-13106.72351687</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BTG ohlcv.xlsx
@@ -3382,7 +3382,7 @@
         <v>-5872.375724300002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5872.375724300002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-5806.109108200002</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-5680.794907590002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-5648.844907590003</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-5801.462307590003</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-5837.682307590003</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-5830.682307590003</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-6135.504607590003</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-6135.504607590003</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-6134.112807590002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-6134.112807590002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-6118.338607590003</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6199.868607590002</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-6199.868607590002</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-6300.868607590002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-6250.393607590002</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-6536.893607590002</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-6420.433607590002</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-6303.553907590002</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-6033.435607590002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-6074.889507590003</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-6075.222007590003</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-6041.222007590003</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5973.328007590003</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-5968.329334880003</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-5550.933714050003</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-5238.742914050003</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-5352.407414050002</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-5333.518716900003</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-5346.383216900002</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-5518.846423120002</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-5608.346423120002</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-5559.582546020002</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-5769.582546020002</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-5961.582546020002</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-5951.603246020002</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-5684.988046020002</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5724.988046020002</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-5699.841546020002</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-5907.341546020002</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5766.223746020002</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5846.017146020002</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5845.644374820002</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5851.694374820002</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5851.567074820002</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5895.894074820002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-6133.141574820002</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-7343.753874820002</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-17884.12378045001</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-18001.15698045001</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-18417.37358045001</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-18107.68488045</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-17919.68488045</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-17971.78718045</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-17797.32718045</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-17716.32718045</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-18221.61368045001</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-18162.61368045001</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-18287.89368045001</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-18220.16348045001</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-18310.16348045001</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-20248.26638045001</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-20128.71868045001</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-20128.71868045001</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-20208.71868045001</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-20095.30868045001</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-20622.85138045001</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-21102.15658045001</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-21142.15658045001</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-21005.85848045001</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-21013.07488045001</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-21013.07488045001</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-20893.31378045001</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-20796.12898045001</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-20756.12898045001</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-20591.67265920001</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-19430.29135577</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-19488.78075577</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-19513.83275577</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-19423.13695577</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-19319.50525577</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-19319.50525577</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-17373.36515576999</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-16852.86515576999</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-16599.72915576999</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-16615.48985751999</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-13378.03512818</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-13504.29482818</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
